--- a/medicine/Enfance/François_Sautereau/François_Sautereau.xlsx
+++ b/medicine/Enfance/François_Sautereau/François_Sautereau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Sautereau</t>
+          <t>François_Sautereau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Sautereau, né le 20 juillet 1943 à Paris 16e et mort le 8 septembre 2014 à Cornebarrieu[1], est un écrivain français de littérature d'enfance et de jeunesse et de science-fiction. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Sautereau, né le 20 juillet 1943 à Paris 16e et mort le 8 septembre 2014 à Cornebarrieu, est un écrivain français de littérature d'enfance et de jeunesse et de science-fiction. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Sautereau</t>
+          <t>François_Sautereau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Sautereau est né le 20 juillet 1943 à Paris 16e dans une famille de musiciens[2]. Après des études au lycée Henri-IV à Paris[3] où il est notamment l'élève de Jean-Louis Bory, il devient d'abord postier, puis pendant une trentaine d'années au service de l'enfance en tant qu'animateur et directeur de centres de loisirs, il se lance dans l'écriture à partir des années 1970.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Sautereau est né le 20 juillet 1943 à Paris 16e dans une famille de musiciens. Après des études au lycée Henri-IV à Paris où il est notamment l'élève de Jean-Louis Bory, il devient d'abord postier, puis pendant une trentaine d'années au service de l'enfance en tant qu'animateur et directeur de centres de loisirs, il se lance dans l'écriture à partir des années 1970.
 Il publie son premier roman en 1977, Un trou dans le grillage chez Nathan dans la collection « Bibliothèque Internationale ». Il écrit de nombreux romans, souvent de science-fiction, comme La 5e Dimension (1979) ou Classe de lune (1989), ou fantastiques comme Les Indiens de la rue Jules Ferry (1982), L'Étrange noël de Jonas (1984), La Cité des brumes (1986). 
 Son roman L'Héritier de la nuit (1985) met en scène un écrivain invité dans les classes. En 1987, La Vallée des esprits, premier tome de la trilogie de La longue marche de Benjamin, obtient le Grand Prix du Livre de Jeunesse du Ministère de la Jeunesse et des Sports.
-En 1984, François Sautereau rejoint quelques amis pour fonder la « Charte des auteurs et illustrateurs jeunesse » dont il devient le secrétaire général en 1987, puis le président de 1993 à 1996[4].
+En 1984, François Sautereau rejoint quelques amis pour fonder la « Charte des auteurs et illustrateurs jeunesse » dont il devient le secrétaire général en 1987, puis le président de 1993 à 1996.
 Il continue de publier des romans comme Le Cahier jaune (1990), La Montre infernale (1996), Terminal Park (1997), Le Bébé de cristal (1998), Cette gloire à tout prix (2007).
-François Sautereau publie au total une trentaine d’ouvrages, essentiellement des romans ou des contes. Il participe également à la fondation de l'association OVAL qui reçoit des classes de découvertes consacrée au théâtre et aux ateliers d’écriture. Il est marié et père de deux filles[5].
-Il meurt à l'âge de 71 ans le 8 septembre 2014[4] à Cornebarrieu (Haute-Garonne). 
+François Sautereau publie au total une trentaine d’ouvrages, essentiellement des romans ou des contes. Il participe également à la fondation de l'association OVAL qui reçoit des classes de découvertes consacrée au théâtre et aux ateliers d’écriture. Il est marié et père de deux filles.
+Il meurt à l'âge de 71 ans le 8 septembre 2014 à Cornebarrieu (Haute-Garonne). 
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Sautereau</t>
+          <t>François_Sautereau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un trou dans le grillage, Nathan Bibliothèque internationale, 1977. Prix Futuribles
 Le roi sans armes, Nathan Lecture (devenue Arc-en-poche), 1979.
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Sautereau</t>
+          <t>François_Sautereau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,9 +622,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1980 : (international) « Honour List »[6] de l' IBBY pour Train M
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1980 : (international) « Honour List » de l' IBBY pour Train M
 1987 : Grand Prix du Livre de Jeunesse du Ministère de la Jeunesse et des Sports pour La Longue Marche de Benjamin, tome 1 : La Vallée des esprits</t>
         </is>
       </c>
